--- a/corona/management/commands/data/seoul.xlsx
+++ b/corona/management/commands/data/seoul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\djangoProject\gazahome\corona\management\commands\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA64EFF5-F018-4BEA-9EDA-C9BAB830839D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923FE0CE-48F9-4999-95E4-02ADAA3D912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1215" windowWidth="29040" windowHeight="15840" xr2:uid="{6C6A8289-D389-4D9B-90D6-C8DB2A537A96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6C6A8289-D389-4D9B-90D6-C8DB2A537A96}"/>
   </bookViews>
   <sheets>
     <sheet name="unavailable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,101 @@
   </si>
   <si>
     <t>#샐러드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채선당 답십리점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 동대문구 사가정로 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/xpPaZc7n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#샤브샤브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 은평구 서오릉로 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/GJrZAH4l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥탑방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 은평구 서오릉로 115 1층 옥탑방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/FQaINMzN</t>
+  </si>
+  <si>
+    <t>#삼겹살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오누이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 동작구 시흥대로 676 혜석빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/FPsee0qH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유어다이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구 망원로6길 56 유어다이닝, 101호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/5X9DTvAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#파스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대안생활카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강동구 상암로4길 16 동경빌딩 2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.me/Fds7FG0T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2264628C-3F7F-47BF-8D49-056E3EF8BEF5}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1191,7 @@
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1162,7 +1257,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1193,7 +1288,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3"/>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1224,7 +1319,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1255,7 +1350,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5"/>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1286,7 +1381,7 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6"/>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="5" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1317,7 +1412,7 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7"/>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1348,6 +1443,7 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -1376,7 +1472,7 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1407,6 +1503,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1435,7 +1532,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1466,7 +1563,7 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1497,7 +1594,7 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13"/>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1528,6 +1625,7 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -1556,6 +1654,7 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -1584,6 +1683,7 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1612,6 +1712,7 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1640,7 +1741,7 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18"/>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1671,7 +1772,7 @@
       </c>
       <c r="I19" s="5"/>
       <c r="J19"/>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1702,6 +1803,7 @@
       </c>
       <c r="I20" s="5"/>
       <c r="J20"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1730,6 +1832,7 @@
       </c>
       <c r="I21" s="5"/>
       <c r="J21"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1758,6 +1861,7 @@
       </c>
       <c r="I22" s="5"/>
       <c r="J22"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1786,6 +1890,7 @@
       </c>
       <c r="I23" s="5"/>
       <c r="J23"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -1814,7 +1919,7 @@
       </c>
       <c r="I24" s="5"/>
       <c r="J24"/>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1844,8 +1949,8 @@
         <v>22</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25"/>
-      <c r="K25" s="1" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1859,11 +1964,11 @@
       <c r="C26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="5">
-        <v>37.473104051976797</v>
+      <c r="D26" s="1">
+        <v>37.480553973481399</v>
       </c>
       <c r="E26" s="5">
-        <v>126.93513393178399</v>
+        <v>126.98135696908101</v>
       </c>
       <c r="F26" s="5" t="b">
         <v>0</v>
@@ -1875,10 +1980,132 @@
         <v>22</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26"/>
-      <c r="K26" s="1" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
         <v>160</v>
       </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="5">
+        <v>37.570464195550102</v>
+      </c>
+      <c r="E27" s="5">
+        <v>127.049545353952</v>
+      </c>
+      <c r="F27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="5">
+        <v>37.609105657386699</v>
+      </c>
+      <c r="E28" s="5">
+        <v>126.92095162696501</v>
+      </c>
+      <c r="F28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="5">
+        <v>37.610565756875801</v>
+      </c>
+      <c r="E29" s="5">
+        <v>126.918307225117</v>
+      </c>
+      <c r="F29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="5">
+        <v>37.491822333803199</v>
+      </c>
+      <c r="E30" s="5">
+        <v>126.909138598127</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1908,9 +2135,13 @@
     <hyperlink ref="G24" r:id="rId23" xr:uid="{CE938C88-4584-4CD9-811E-61FB93DFBD23}"/>
     <hyperlink ref="G25" r:id="rId24" xr:uid="{6C735269-2126-4941-8634-DB8D46808A50}"/>
     <hyperlink ref="G26" r:id="rId25" xr:uid="{2A8938F1-8387-4B0C-AAB9-758AF1189424}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{B6A22D69-9417-4CC2-A9FC-57964071F864}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{61E1A665-C51A-4BCC-A89D-B238B5668503}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{55E6A5AF-4764-4400-86A9-EC7C44F65857}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{E89BF529-CFA9-49AD-8C41-C7176CDA6A4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -1918,15 +2149,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D8DD3-8DA6-4AFA-9A61-9F9987821932}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -2401,22 +2632,64 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="J16"/>
-      <c r="K16"/>
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="5">
+        <v>37.5546096238769</v>
+      </c>
+      <c r="E16" s="5">
+        <v>126.90381751347</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="J17"/>
-      <c r="K17"/>
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="5">
+        <v>37.506573119630502</v>
+      </c>
+      <c r="E17" s="5">
+        <v>127.038231228512</v>
+      </c>
+      <c r="F17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -2516,8 +2789,10 @@
     <hyperlink ref="G13" r:id="rId12" xr:uid="{F1420EE0-154F-47E0-BA7E-20FC4EF85C8C}"/>
     <hyperlink ref="G14" r:id="rId13" xr:uid="{07EBCE74-1BBE-4017-AAF5-422286AB6AEA}"/>
     <hyperlink ref="G15" r:id="rId14" xr:uid="{8B5A4601-A029-436E-93E7-6EEE304CCDE2}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{E8BE1612-0526-4BDF-845F-5DB767596F05}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{51248173-D72B-4D8D-8EE7-E08263B384BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>